--- a/AutomationExcelOperation/AutomationExcelOperation/Data/GeneratedExcel/Order.xlsx
+++ b/AutomationExcelOperation/AutomationExcelOperation/Data/GeneratedExcel/Order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ProductId</t>
   </si>
@@ -36,31 +36,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tokens</t>
-  </si>
-  <si>
     <t>Jack</t>
   </si>
   <si>
     <t>1234</t>
   </si>
   <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Mike</t>
   </si>
   <si>
     <t>3456</t>
-  </si>
-  <si>
-    <t>Chen</t>
   </si>
 </sst>
 </file>
@@ -116,14 +101,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E3">
-  <autoFilter ref="A1:E3"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:F3">
+  <autoFilter ref="D1:F3"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="UserId"/>
     <tableColumn id="2" name="UserName"/>
     <tableColumn id="3" name="Password"/>
-    <tableColumn id="4" name="Name"/>
-    <tableColumn id="5" name="Tokens"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -171,61 +154,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="D1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9.39390999930245" customWidth="1"/>
+    <col min="5" max="5" width="12.9418999808175" customWidth="1"/>
+    <col min="6" max="6" width="12.0651332310268" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2">
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="3">
+      <c r="D3" s="0">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationExcelOperation/AutomationExcelOperation/Data/GeneratedExcel/Order.xlsx
+++ b/AutomationExcelOperation/AutomationExcelOperation/Data/GeneratedExcel/Order.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
+    <sheet name="User" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -53,10 +53,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,8 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +131,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.2472392490932" customWidth="1"/>
+    <col min="2" max="2" width="15.7952292306083" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -154,47 +170,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="D1:F3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.39390999930245" customWidth="1"/>
-    <col min="5" max="5" width="12.9418999808175" customWidth="1"/>
-    <col min="6" max="6" width="12.0651332310268" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="9.39390999930245" customWidth="1" style="1"/>
+    <col min="5" max="5" width="12.9418999808175" customWidth="1" style="1"/>
+    <col min="6" max="16384" width="12.0651332310268" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="0">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="0">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AutomationExcelOperation/AutomationExcelOperation/Data/GeneratedExcel/Order.xlsx
+++ b/AutomationExcelOperation/AutomationExcelOperation/Data/GeneratedExcel/Order.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chengyi.tan\Desktop\Excel\AutomationExcelOperation\AutomationExcelOperation\Data\GeneratedExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId3"/>
+    <sheet name="User" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,23 +43,22 @@
     <t>Password</t>
   </si>
   <si>
+    <t>ff</t>
+  </si>
+  <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>1234</t>
+    <t>jj</t>
   </si>
   <si>
     <t>Mike</t>
   </si>
-  <si>
-    <t>3456</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -61,12 +67,14 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,18 +95,240 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>User</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>User!$E$2:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jj</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>User!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>
+              </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B20-4702-A16E-41E17C1AE5AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00008B"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="PieChart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:F3">
-  <autoFilter ref="D1:F3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D1:F5">
+  <autoFilter ref="D1:F5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="UserId"/>
     <tableColumn id="2" name="UserName"/>
@@ -124,66 +354,363 @@
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.2472392490932" customWidth="1"/>
-    <col min="2" max="2" width="15.7952292306083" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.08984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.39390999930245" customWidth="1" style="1"/>
-    <col min="5" max="5" width="12.9418999808175" customWidth="1" style="1"/>
-    <col min="6" max="16384" width="12.0651332310268" customWidth="1" style="1"/>
+    <col min="1" max="3" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="1" customWidth="1"/>
+    <col min="6" max="17" width="12.08984375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="4:6">
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
@@ -194,32 +721,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="4:6">
       <c r="D2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="3">
+        <v>134</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="D3" s="1">
+    <row r="4" spans="4:6">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>